--- a/2024/may/C4L1-Session Plan.xlsx
+++ b/2024/may/C4L1-Session Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinit/workspace-ai/Gen-AI-Cohort/2024/may/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F541A-1074-BC40-B345-A049A940FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB9B86-66E4-A94B-980D-D76158D14112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{B76BDA0C-D645-FF43-96F1-BDE0A8AAAE01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>S.No</t>
   </si>
@@ -101,10 +101,6 @@
   <si>
     <t>Introduction to Gen AI.
 See C4L1 presentation</t>
-  </si>
-  <si>
-    <t>Prompt Engineering
-See C4L2 presentation</t>
   </si>
   <si>
     <t xml:space="preserve">Colab Introduction
@@ -151,6 +147,21 @@
   <si>
     <t xml:space="preserve">Project-4: Burger Bot
 </t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTube extention demo
+</t>
+  </si>
+  <si>
+    <t>Prompt Engineering (Part-1)
+See C4L2 presentation</t>
+  </si>
+  <si>
+    <t>Prompt Engineering (Part-2)
+See C4L2 presentation</t>
   </si>
 </sst>
 </file>
@@ -239,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,14 +263,35 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +630,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,32 +638,32 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8" style="15" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -639,9 +671,9 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -657,13 +689,13 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -671,7 +703,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -681,9 +713,9 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5">
@@ -697,19 +729,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5">
@@ -723,23 +755,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="40" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45430</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="40" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -747,31 +787,45 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45433</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="40" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45435</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="40" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -779,19 +833,25 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5">
+        <v>45437</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
